--- a/resultCsv/1,Preferenceの初期平均値を大きくしてみた場合の結果/HopedPreferenceの好み初期値平均値とTOP100入りしたhoped様式数の関係.xlsx
+++ b/resultCsv/1,Preferenceの初期平均値を大きくしてみた場合の結果/HopedPreferenceの好み初期値平均値とTOP100入りしたhoped様式数の関係.xlsx
@@ -992,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O103"/>
+  <dimension ref="A2:O153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1055,1002 +1055,252 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>9</v>
-      </c>
       <c r="C3">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>11</v>
-      </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="2">
-        <v>9</v>
-      </c>
       <c r="C4">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="M4">
-        <v>8</v>
-      </c>
-      <c r="O4">
-        <v>8</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="2">
-        <v>13</v>
-      </c>
       <c r="C5">
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="M5">
-        <v>8</v>
-      </c>
-      <c r="O5">
-        <v>11</v>
-      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="2">
-        <v>9</v>
-      </c>
       <c r="C6">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-      <c r="H6">
-        <v>13</v>
-      </c>
-      <c r="M6">
-        <v>9</v>
-      </c>
-      <c r="O6">
-        <v>10</v>
-      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="2">
-        <v>14</v>
-      </c>
       <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-      <c r="H7">
-        <v>13</v>
-      </c>
-      <c r="M7">
-        <v>9</v>
-      </c>
-      <c r="O7">
-        <v>14</v>
-      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="2">
-        <v>10</v>
-      </c>
       <c r="C8">
         <v>10</v>
       </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>11</v>
-      </c>
-      <c r="M8">
-        <v>8</v>
-      </c>
-      <c r="O8">
-        <v>9</v>
-      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
       <c r="C9">
         <v>12</v>
       </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <v>10</v>
-      </c>
-      <c r="O9">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="2">
-        <v>5</v>
-      </c>
       <c r="C10">
         <v>11</v>
       </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
-      <c r="M10">
-        <v>8</v>
-      </c>
-      <c r="O10">
-        <v>9</v>
-      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="2">
-        <v>9</v>
-      </c>
       <c r="C11">
         <v>12</v>
       </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="M11">
-        <v>10</v>
-      </c>
-      <c r="O11">
-        <v>11</v>
-      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
       <c r="C12">
         <v>12</v>
       </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="M12">
-        <v>8</v>
-      </c>
-      <c r="O12">
-        <v>10</v>
-      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
       <c r="C13">
         <v>13</v>
       </c>
-      <c r="D13">
-        <v>7</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="M13">
-        <v>7</v>
-      </c>
-      <c r="O13">
-        <v>10</v>
-      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="2">
-        <v>10</v>
-      </c>
       <c r="C14">
         <v>10</v>
       </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <v>9</v>
-      </c>
-      <c r="M14">
-        <v>10</v>
-      </c>
-      <c r="O14">
-        <v>9</v>
-      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
       <c r="C15">
         <v>6</v>
       </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>17</v>
-      </c>
-      <c r="M15">
-        <v>9</v>
-      </c>
-      <c r="O15">
-        <v>13</v>
-      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="2">
-        <v>10</v>
-      </c>
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="H16">
-        <v>11</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
-      <c r="O16">
-        <v>14</v>
-      </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="2">
-        <v>12</v>
-      </c>
       <c r="C17">
         <v>7</v>
       </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="M17">
-        <v>9</v>
-      </c>
-      <c r="O17">
-        <v>13</v>
-      </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="2">
-        <v>7</v>
-      </c>
       <c r="C18">
         <v>11</v>
       </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="H18">
-        <v>7</v>
-      </c>
-      <c r="M18">
-        <v>12</v>
-      </c>
-      <c r="O18">
-        <v>11</v>
-      </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="2">
-        <v>7</v>
-      </c>
       <c r="C19">
         <v>9</v>
       </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="H19">
-        <v>11</v>
-      </c>
-      <c r="M19">
-        <v>10</v>
-      </c>
-      <c r="O19">
-        <v>20</v>
-      </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="2">
-        <v>13</v>
-      </c>
       <c r="C20">
         <v>8</v>
       </c>
-      <c r="D20">
-        <v>12</v>
-      </c>
-      <c r="H20">
-        <v>8</v>
-      </c>
-      <c r="M20">
-        <v>13</v>
-      </c>
-      <c r="O20">
-        <v>8</v>
-      </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="2">
-        <v>12</v>
-      </c>
       <c r="C21">
         <v>11</v>
       </c>
-      <c r="D21">
-        <v>14</v>
-      </c>
-      <c r="H21">
-        <v>8</v>
-      </c>
-      <c r="M21">
-        <v>11</v>
-      </c>
-      <c r="O21">
-        <v>12</v>
-      </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="2">
-        <v>16</v>
-      </c>
       <c r="C22">
         <v>10</v>
       </c>
-      <c r="D22">
-        <v>14</v>
-      </c>
-      <c r="H22">
-        <v>11</v>
-      </c>
-      <c r="M22">
-        <v>13</v>
-      </c>
-      <c r="O22">
-        <v>8</v>
-      </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="2">
-        <v>8</v>
-      </c>
       <c r="C23">
         <v>15</v>
       </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-      <c r="H23">
-        <v>9</v>
-      </c>
-      <c r="M23">
-        <v>8</v>
-      </c>
-      <c r="O23">
-        <v>9</v>
-      </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="2">
-        <v>11</v>
-      </c>
       <c r="C24">
         <v>7</v>
       </c>
-      <c r="D24">
-        <v>9</v>
-      </c>
-      <c r="H24">
-        <v>9</v>
-      </c>
-      <c r="M24">
-        <v>10</v>
-      </c>
-      <c r="O24">
-        <v>9</v>
-      </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="2">
-        <v>15</v>
-      </c>
       <c r="C25">
         <v>9</v>
       </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="H25">
-        <v>11</v>
-      </c>
-      <c r="M25">
-        <v>11</v>
-      </c>
-      <c r="O25">
-        <v>10</v>
-      </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="2">
-        <v>7</v>
-      </c>
       <c r="C26">
         <v>10</v>
       </c>
-      <c r="D26">
-        <v>17</v>
-      </c>
-      <c r="H26">
-        <v>8</v>
-      </c>
-      <c r="M26">
-        <v>7</v>
-      </c>
-      <c r="O26">
-        <v>8</v>
-      </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="2">
-        <v>6</v>
-      </c>
       <c r="C27">
         <v>14</v>
       </c>
-      <c r="D27">
-        <v>11</v>
-      </c>
-      <c r="H27">
-        <v>9</v>
-      </c>
-      <c r="M27">
-        <v>10</v>
-      </c>
-      <c r="O27">
-        <v>10</v>
-      </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="2">
-        <v>5</v>
-      </c>
       <c r="C28">
         <v>11</v>
       </c>
-      <c r="D28">
-        <v>15</v>
-      </c>
-      <c r="H28">
-        <v>12</v>
-      </c>
-      <c r="M28">
-        <v>8</v>
-      </c>
-      <c r="O28">
-        <v>8</v>
-      </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="2">
-        <v>10</v>
-      </c>
       <c r="C29">
         <v>13</v>
       </c>
-      <c r="D29">
-        <v>9</v>
-      </c>
-      <c r="H29">
-        <v>10</v>
-      </c>
-      <c r="M29">
-        <v>14</v>
-      </c>
-      <c r="O29">
-        <v>14</v>
-      </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="2">
-        <v>12</v>
-      </c>
       <c r="C30">
         <v>12</v>
       </c>
-      <c r="D30">
-        <v>9</v>
-      </c>
-      <c r="H30">
-        <v>15</v>
-      </c>
-      <c r="M30">
-        <v>5</v>
-      </c>
-      <c r="O30">
-        <v>14</v>
-      </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="2">
-        <v>9</v>
-      </c>
       <c r="C31">
         <v>13</v>
       </c>
-      <c r="D31">
-        <v>8</v>
-      </c>
-      <c r="H31">
-        <v>10</v>
-      </c>
-      <c r="M31">
-        <v>15</v>
-      </c>
-      <c r="O31">
-        <v>16</v>
-      </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="2">
-        <v>11</v>
-      </c>
       <c r="C32">
         <v>10</v>
       </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
-      <c r="H32">
-        <v>12</v>
-      </c>
-      <c r="M32">
-        <v>10</v>
-      </c>
-      <c r="O32">
-        <v>13</v>
-      </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="2">
-        <v>7</v>
-      </c>
       <c r="C33">
         <v>10</v>
       </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-      <c r="H33">
-        <v>8</v>
-      </c>
-      <c r="M33">
-        <v>5</v>
-      </c>
-      <c r="O33">
-        <v>10</v>
-      </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="2">
-        <v>9</v>
-      </c>
       <c r="C34">
         <v>8</v>
       </c>
-      <c r="D34">
-        <v>11</v>
-      </c>
-      <c r="H34">
-        <v>8</v>
-      </c>
-      <c r="M34">
-        <v>9</v>
-      </c>
-      <c r="O34">
-        <v>8</v>
-      </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="2">
-        <v>8</v>
-      </c>
       <c r="C35">
         <v>8</v>
       </c>
-      <c r="D35">
-        <v>6</v>
-      </c>
-      <c r="H35">
-        <v>10</v>
-      </c>
-      <c r="M35">
-        <v>9</v>
-      </c>
-      <c r="O35">
-        <v>5</v>
-      </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B36" s="2">
-        <v>10</v>
-      </c>
       <c r="C36">
         <v>12</v>
       </c>
-      <c r="D36">
-        <v>14</v>
-      </c>
-      <c r="H36">
-        <v>10</v>
-      </c>
-      <c r="M36">
-        <v>8</v>
-      </c>
-      <c r="O36">
-        <v>11</v>
-      </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B37" s="2">
-        <v>12</v>
-      </c>
       <c r="C37">
         <v>12</v>
       </c>
-      <c r="D37">
-        <v>13</v>
-      </c>
-      <c r="H37">
-        <v>4</v>
-      </c>
-      <c r="M37">
-        <v>8</v>
-      </c>
-      <c r="O37">
-        <v>6</v>
-      </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B38" s="2">
-        <v>10</v>
-      </c>
       <c r="C38">
         <v>7</v>
       </c>
-      <c r="D38">
-        <v>11</v>
-      </c>
-      <c r="H38">
-        <v>6</v>
-      </c>
-      <c r="M38">
-        <v>9</v>
-      </c>
-      <c r="O38">
-        <v>13</v>
-      </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="2">
-        <v>6</v>
-      </c>
       <c r="C39">
         <v>6</v>
       </c>
-      <c r="D39">
-        <v>8</v>
-      </c>
-      <c r="H39">
-        <v>9</v>
-      </c>
-      <c r="M39">
-        <v>10</v>
-      </c>
-      <c r="O39">
-        <v>11</v>
-      </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="2">
-        <v>10</v>
-      </c>
       <c r="C40">
         <v>12</v>
       </c>
-      <c r="D40">
-        <v>11</v>
-      </c>
-      <c r="H40">
-        <v>7</v>
-      </c>
-      <c r="M40">
-        <v>12</v>
-      </c>
-      <c r="O40">
-        <v>8</v>
-      </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="2">
-        <v>8</v>
-      </c>
       <c r="C41">
         <v>14</v>
       </c>
-      <c r="D41">
-        <v>8</v>
-      </c>
-      <c r="H41">
-        <v>12</v>
-      </c>
-      <c r="M41">
-        <v>11</v>
-      </c>
-      <c r="O41">
-        <v>8</v>
-      </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B42" s="2">
-        <v>4</v>
-      </c>
       <c r="C42">
         <v>12</v>
       </c>
-      <c r="D42">
-        <v>12</v>
-      </c>
-      <c r="H42">
-        <v>11</v>
-      </c>
-      <c r="M42">
-        <v>11</v>
-      </c>
-      <c r="O42">
-        <v>11</v>
-      </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="2">
-        <v>11</v>
-      </c>
       <c r="C43">
         <v>7</v>
       </c>
-      <c r="D43">
-        <v>13</v>
-      </c>
-      <c r="H43">
-        <v>10</v>
-      </c>
-      <c r="M43">
-        <v>10</v>
-      </c>
-      <c r="O43">
-        <v>11</v>
-      </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="2">
-        <v>8</v>
-      </c>
       <c r="C44">
         <v>8</v>
       </c>
-      <c r="D44">
-        <v>13</v>
-      </c>
-      <c r="H44">
-        <v>13</v>
-      </c>
-      <c r="M44">
-        <v>15</v>
-      </c>
-      <c r="O44">
-        <v>7</v>
-      </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="2">
-        <v>8</v>
-      </c>
       <c r="C45">
         <v>10</v>
       </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-      <c r="H45">
-        <v>12</v>
-      </c>
-      <c r="M45">
-        <v>10</v>
-      </c>
-      <c r="O45">
-        <v>8</v>
-      </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B46" s="2">
-        <v>9</v>
-      </c>
       <c r="C46">
         <v>15</v>
       </c>
-      <c r="D46">
-        <v>6</v>
-      </c>
-      <c r="H46">
-        <v>11</v>
-      </c>
-      <c r="M46">
-        <v>18</v>
-      </c>
-      <c r="O46">
-        <v>13</v>
-      </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="2">
-        <v>8</v>
-      </c>
       <c r="C47">
         <v>12</v>
       </c>
-      <c r="D47">
-        <v>10</v>
-      </c>
-      <c r="H47">
-        <v>6</v>
-      </c>
-      <c r="M47">
-        <v>5</v>
-      </c>
-      <c r="O47">
-        <v>9</v>
-      </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="2">
-        <v>10</v>
-      </c>
       <c r="C48">
         <v>5</v>
       </c>
-      <c r="D48">
-        <v>6</v>
-      </c>
-      <c r="H48">
-        <v>9</v>
-      </c>
-      <c r="M48">
-        <v>12</v>
-      </c>
-      <c r="O48">
-        <v>9</v>
-      </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B49" s="2">
-        <v>16</v>
-      </c>
       <c r="C49">
         <v>8</v>
       </c>
-      <c r="D49">
-        <v>17</v>
-      </c>
-      <c r="H49">
-        <v>12</v>
-      </c>
-      <c r="M49">
-        <v>12</v>
-      </c>
-      <c r="O49">
-        <v>8</v>
-      </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B50" s="2">
-        <v>9</v>
-      </c>
       <c r="C50">
         <v>10</v>
       </c>
-      <c r="D50">
-        <v>9</v>
-      </c>
-      <c r="H50">
-        <v>15</v>
-      </c>
-      <c r="M50">
-        <v>12</v>
-      </c>
-      <c r="O50">
-        <v>12</v>
-      </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B51" s="2">
-        <v>7</v>
-      </c>
       <c r="C51">
         <v>9</v>
       </c>
-      <c r="D51">
-        <v>16</v>
-      </c>
-      <c r="H51">
-        <v>11</v>
-      </c>
-      <c r="M51">
-        <v>7</v>
-      </c>
-      <c r="O51">
-        <v>11</v>
-      </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B52" s="2">
-        <v>6</v>
-      </c>
       <c r="C52">
-        <v>7</v>
-      </c>
-      <c r="D52">
-        <v>7</v>
-      </c>
-      <c r="H52">
-        <v>8</v>
-      </c>
-      <c r="M52">
-        <v>10</v>
-      </c>
-      <c r="O52">
         <v>7</v>
       </c>
     </row>
@@ -2058,17 +1308,17 @@
       <c r="A53" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="2" t="e">
         <f t="shared" ref="B53:M53" si="0">AVERAGE(B3:B52)</f>
-        <v>9.52</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>10.220000000000001</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>10.18</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E53" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2082,9 +1332,9 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>9.8800000000000008</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I53" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2102,17 +1352,17 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>9.64</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N53" s="2" t="e">
         <f t="shared" ref="N53" si="1">AVERAGE(N3:N52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O53" s="2" t="e">
         <f t="shared" ref="O53" si="2">AVERAGE(O3:O52)</f>
-        <v>10.36</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
@@ -2363,6 +1613,260 @@
     <row r="103" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C103">
         <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C104">
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <f>AVERAGE(C104:C153)</f>
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C105">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C108">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C109">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C111">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C112">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C115">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C116">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C118">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C123">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C124">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C125">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C126">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C127">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C128">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C130">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C131">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C133">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C136">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C138">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C139">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C141">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C142">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C143">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C144">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C145">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C146">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C147">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C149">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C150">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C151">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C153">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
